--- a/daftar pertanyaan - yofandi riki winata - Kajian Teologis 2 Petrus 1 ayat 5 sampai 7 dan Aplikasinya dalam Pertumbuhan Pengenalan Akan Allah.xlsx
+++ b/daftar pertanyaan - yofandi riki winata - Kajian Teologis 2 Petrus 1 ayat 5 sampai 7 dan Aplikasinya dalam Pertumbuhan Pengenalan Akan Allah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03461a0c230c1ba6/Documents/Yofandi/semester 7/projectskripsi2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{743CF067-99D8-4071-8589-12DE87325F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{743CF067-99D8-4071-8589-12DE87325F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A00DB3B6-63AF-496F-B271-E6574D093B3D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F7D150-19EE-4AE7-B66D-0B0DE934FA0F}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Bagaimana Kajian Teologis 2 Petrus 1:5-7 ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Apa pendapat anda tentang 2 Petrus 1:5-7 ? Jelaskan </t>
-  </si>
-  <si>
     <t>Menurut anda apa yang dimaksud dengan "bersungguh-sungguh" dan "menambahkan" dalam konteks 2 Petrus 1:5-7 ini ?</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Kajian Teologis 2 Petrus 1:5-7 dan Aplikasinya dalam Pertumbuhan Pengenalan Akan Allah di MDC Youth GKPB Masa Depan Cerah Surabaya Ciputra World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apa pendapat anda tentang 2 Petrus 1:5-7 ? Mohon dijelaskan </t>
   </si>
 </sst>
 </file>
@@ -164,25 +164,25 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +501,7 @@
   <dimension ref="C1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,95 +513,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:5" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="3:5" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="3:5" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="3:5" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="3:5" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="3:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+    <row r="7" spans="3:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C7" s="7"/>
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
+    <row r="8" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="9" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="2" t="s">
+    <row r="10" spans="3:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C10" s="7"/>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
-      <c r="D10" s="2" t="s">
+    <row r="11" spans="3:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="C11" s="7"/>
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="D11" s="2" t="s">
+    <row r="12" spans="3:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="13" spans="3:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="2" t="s">
+    <row r="14" spans="3:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
-      <c r="D14" s="2" t="s">
+    <row r="15" spans="3:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+      <c r="D15" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" ht="78" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
